--- a/compete/unique_data_P2.xlsx
+++ b/compete/unique_data_P2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1005"/>
+  <dimension ref="A1:E1115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14993,92 +14993,92 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="B860">
-        <v>-0.56999999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="C860">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D860">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E860">
-        <v>83</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B861">
-        <v>0.86</v>
+        <v>-0.86</v>
       </c>
       <c r="C861">
         <v>7</v>
       </c>
       <c r="D861">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E861">
-        <v>-5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="B862">
-        <v>-0.86</v>
+        <v>-0.88</v>
       </c>
       <c r="C862">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D862">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="E862">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B863">
-        <v>-0.88</v>
+        <v>0.88</v>
       </c>
       <c r="C863">
         <v>8</v>
       </c>
       <c r="D863">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E863">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B864">
-        <v>0.88</v>
+        <v>-0.22</v>
       </c>
       <c r="C864">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D864">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="E864">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B865">
         <v>-0.22</v>
@@ -15087,117 +15087,117 @@
         <v>9</v>
       </c>
       <c r="D865">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E865">
-        <v>78</v>
+        <v>186</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B866">
-        <v>-0.22</v>
+        <v>0.22</v>
       </c>
       <c r="C866">
         <v>9</v>
       </c>
       <c r="D866">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="E866">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="B867">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="C867">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D867">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="E867">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B868">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C868">
         <v>10</v>
       </c>
       <c r="D868">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E868">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="B869">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C869">
         <v>10</v>
       </c>
       <c r="D869">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="E869">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="B870">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C870">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D870">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="E870">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B871">
-        <v>0.45</v>
+        <v>-0.45</v>
       </c>
       <c r="C871">
         <v>11</v>
       </c>
       <c r="D871">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="E871">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B872">
         <v>-0.45</v>
@@ -15206,49 +15206,49 @@
         <v>11</v>
       </c>
       <c r="D872">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E872">
-        <v>85</v>
+        <v>200</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B873">
-        <v>-0.45</v>
+        <v>0.92</v>
       </c>
       <c r="C873">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D873">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="E873">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B874">
-        <v>0.92</v>
+        <v>-0.92</v>
       </c>
       <c r="C874">
         <v>12</v>
       </c>
       <c r="D874">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E874">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="B875">
         <v>-0.92</v>
@@ -15257,117 +15257,117 @@
         <v>12</v>
       </c>
       <c r="D875">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E875">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="B876">
-        <v>-0.92</v>
+        <v>0.23</v>
       </c>
       <c r="C876">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D876">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="E876">
-        <v>168</v>
+        <v>52</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>104</v>
+        <v>-5</v>
       </c>
       <c r="B877">
-        <v>0.23</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="C877">
         <v>13</v>
       </c>
       <c r="D877">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E877">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>-5</v>
+        <v>117</v>
       </c>
       <c r="B878">
-        <v>-0.56000000000000005</v>
+        <v>-0.77</v>
       </c>
       <c r="C878">
         <v>13</v>
       </c>
       <c r="D878">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E878">
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B879">
-        <v>-0.77</v>
+        <v>0.77</v>
       </c>
       <c r="C879">
         <v>13</v>
       </c>
       <c r="D879">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="E879">
-        <v>169</v>
+        <v>117</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B880">
-        <v>0.77</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C880">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D880">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="E880">
-        <v>117</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B881">
-        <v>0.56999999999999995</v>
+        <v>-0.93</v>
       </c>
       <c r="C881">
         <v>14</v>
       </c>
       <c r="D881">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E881">
-        <v>-5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="B882">
         <v>-0.93</v>
@@ -15376,236 +15376,236 @@
         <v>14</v>
       </c>
       <c r="D882">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E882">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="B883">
-        <v>-0.93</v>
+        <v>0.93</v>
       </c>
       <c r="C883">
         <v>14</v>
       </c>
       <c r="D883">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E883">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B884">
-        <v>0.93</v>
+        <v>-0.4</v>
       </c>
       <c r="C884">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D884">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="E884">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B885">
-        <v>-0.4</v>
+        <v>-0.33</v>
       </c>
       <c r="C885">
         <v>15</v>
       </c>
       <c r="D885">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E885">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="B886">
-        <v>-0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C886">
         <v>15</v>
       </c>
       <c r="D886">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="E886">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B887">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C887">
         <v>15</v>
       </c>
       <c r="D887">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E887">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>90</v>
+        <v>-5</v>
       </c>
       <c r="B888">
-        <v>0.33</v>
+        <v>-0.25</v>
       </c>
       <c r="C888">
         <v>15</v>
       </c>
       <c r="D888">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E888">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>-5</v>
+        <v>147</v>
       </c>
       <c r="B889">
-        <v>-0.25</v>
+        <v>-0.94</v>
       </c>
       <c r="C889">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D889">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E889">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B890">
-        <v>-0.94</v>
+        <v>0.94</v>
       </c>
       <c r="C890">
         <v>16</v>
       </c>
       <c r="D890">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E890">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B891">
-        <v>0.94</v>
+        <v>-0.94</v>
       </c>
       <c r="C891">
         <v>16</v>
       </c>
       <c r="D891">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="E891">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="B892">
-        <v>-0.94</v>
+        <v>0.94</v>
       </c>
       <c r="C892">
         <v>16</v>
       </c>
       <c r="D892">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="E892">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="B893">
-        <v>0.94</v>
+        <v>0.76</v>
       </c>
       <c r="C893">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D893">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="E893">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B894">
-        <v>0.76</v>
+        <v>-0.71</v>
       </c>
       <c r="C894">
         <v>17</v>
       </c>
       <c r="D894">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E894">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="B895">
-        <v>-0.71</v>
+        <v>0.71</v>
       </c>
       <c r="C895">
         <v>17</v>
       </c>
       <c r="D895">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E895">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="B896">
         <v>0.71</v>
@@ -15614,83 +15614,83 @@
         <v>17</v>
       </c>
       <c r="D896">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="E896">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B897">
-        <v>0.71</v>
+        <v>-0.71</v>
       </c>
       <c r="C897">
         <v>17</v>
       </c>
       <c r="D897">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E897">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="B898">
-        <v>-0.71</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C898">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D898">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="E898">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="B899">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="C899">
         <v>18</v>
       </c>
       <c r="D899">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E899">
-        <v>108</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B900">
-        <v>0.61</v>
+        <v>-0.61</v>
       </c>
       <c r="C900">
         <v>18</v>
       </c>
       <c r="D900">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E900">
-        <v>-5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="B901">
         <v>-0.61</v>
@@ -15699,185 +15699,185 @@
         <v>18</v>
       </c>
       <c r="D901">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E901">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B902">
-        <v>-0.61</v>
+        <v>0.61</v>
       </c>
       <c r="C902">
         <v>18</v>
       </c>
       <c r="D902">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E902">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>108</v>
+        <v>-5</v>
       </c>
       <c r="B903">
-        <v>0.61</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="C903">
         <v>18</v>
       </c>
       <c r="D903">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="E903">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>-5</v>
+        <v>157</v>
       </c>
       <c r="B904">
-        <v>-0.55000000000000004</v>
+        <v>-0.63</v>
       </c>
       <c r="C904">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D904">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="E904">
-        <v>81</v>
+        <v>171</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="B905">
-        <v>-0.63</v>
+        <v>0.63</v>
       </c>
       <c r="C905">
         <v>19</v>
       </c>
       <c r="D905">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E905">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B906">
-        <v>0.63</v>
+        <v>-0.63</v>
       </c>
       <c r="C906">
         <v>19</v>
       </c>
       <c r="D906">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E906">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B907">
-        <v>-0.63</v>
+        <v>0.63</v>
       </c>
       <c r="C907">
         <v>19</v>
       </c>
       <c r="D907">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E907">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="B908">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="C908">
         <v>19</v>
       </c>
       <c r="D908">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E908">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B909">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C909">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D909">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="E909">
-        <v>81</v>
+        <v>200</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B910">
-        <v>-0.2</v>
+        <v>0.75</v>
       </c>
       <c r="C910">
         <v>20</v>
       </c>
       <c r="D910">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E910">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>120</v>
+        <v>-5</v>
       </c>
       <c r="B911">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="C911">
         <v>20</v>
       </c>
       <c r="D911">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E911">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>-5</v>
+        <v>135</v>
       </c>
       <c r="B912">
         <v>-0.75</v>
@@ -15886,61 +15886,61 @@
         <v>20</v>
       </c>
       <c r="D912">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E912">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B913">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="C913">
         <v>20</v>
       </c>
       <c r="D913">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E913">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>120</v>
+        <v>-5</v>
       </c>
       <c r="B914">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="C914">
         <v>20</v>
       </c>
       <c r="D914">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E914">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>-5</v>
+        <v>149</v>
       </c>
       <c r="B915">
-        <v>-0.75</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C915">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D915">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="E915">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
@@ -17473,8 +17473,1879 @@
         <v>159</v>
       </c>
     </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>40</v>
+      </c>
+      <c r="B1006">
+        <v>-13</v>
+      </c>
+      <c r="C1006">
+        <v>14</v>
+      </c>
+      <c r="D1006">
+        <v>39</v>
+      </c>
+      <c r="E1006">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>83</v>
+      </c>
+      <c r="B1007">
+        <v>-0.93</v>
+      </c>
+      <c r="C1007">
+        <v>14</v>
+      </c>
+      <c r="D1007">
+        <v>87</v>
+      </c>
+      <c r="E1007">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>200</v>
+      </c>
+      <c r="B1008">
+        <v>0.72</v>
+      </c>
+      <c r="C1008">
+        <v>14</v>
+      </c>
+      <c r="D1008">
+        <v>135</v>
+      </c>
+      <c r="E1008">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009">
+        <v>70</v>
+      </c>
+      <c r="B1009">
+        <v>0.93</v>
+      </c>
+      <c r="C1009">
+        <v>14</v>
+      </c>
+      <c r="D1009">
+        <v>183</v>
+      </c>
+      <c r="E1009">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010">
+        <v>160</v>
+      </c>
+      <c r="B1010">
+        <v>-12</v>
+      </c>
+      <c r="C1010">
+        <v>17</v>
+      </c>
+      <c r="D1010">
+        <v>82</v>
+      </c>
+      <c r="E1010">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011">
+        <v>-5</v>
+      </c>
+      <c r="B1011">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C1011">
+        <v>18</v>
+      </c>
+      <c r="D1011">
+        <v>78</v>
+      </c>
+      <c r="E1011">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012">
+        <v>170</v>
+      </c>
+      <c r="B1012">
+        <v>4.33</v>
+      </c>
+      <c r="C1012">
+        <v>14</v>
+      </c>
+      <c r="D1012">
+        <v>111</v>
+      </c>
+      <c r="E1012">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013">
+        <v>56</v>
+      </c>
+      <c r="B1013">
+        <v>0.93</v>
+      </c>
+      <c r="C1013">
+        <v>14</v>
+      </c>
+      <c r="D1013">
+        <v>159</v>
+      </c>
+      <c r="E1013">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014">
+        <v>60</v>
+      </c>
+      <c r="B1014">
+        <v>-0.33</v>
+      </c>
+      <c r="C1014">
+        <v>15</v>
+      </c>
+      <c r="D1014">
+        <v>191</v>
+      </c>
+      <c r="E1014">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015">
+        <v>155</v>
+      </c>
+      <c r="B1015">
+        <v>-10</v>
+      </c>
+      <c r="C1015">
+        <v>13</v>
+      </c>
+      <c r="D1015">
+        <v>86</v>
+      </c>
+      <c r="E1015">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1016">
+        <v>90</v>
+      </c>
+      <c r="B1016">
+        <v>3.67</v>
+      </c>
+      <c r="C1016">
+        <v>18</v>
+      </c>
+      <c r="D1016">
+        <v>78</v>
+      </c>
+      <c r="E1016">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017">
+        <v>180</v>
+      </c>
+      <c r="B1017">
+        <v>6</v>
+      </c>
+      <c r="C1017">
+        <v>17</v>
+      </c>
+      <c r="D1017">
+        <v>182</v>
+      </c>
+      <c r="E1017">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018">
+        <v>-5</v>
+      </c>
+      <c r="B1018">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C1018">
+        <v>18</v>
+      </c>
+      <c r="D1018">
+        <v>173</v>
+      </c>
+      <c r="E1018">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019">
+        <v>15</v>
+      </c>
+      <c r="B1019">
+        <v>1.27</v>
+      </c>
+      <c r="C1019">
+        <v>19</v>
+      </c>
+      <c r="D1019">
+        <v>10</v>
+      </c>
+      <c r="E1019">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>35</v>
+      </c>
+      <c r="B1020">
+        <v>-0.94</v>
+      </c>
+      <c r="C1020">
+        <v>16</v>
+      </c>
+      <c r="D1020">
+        <v>181</v>
+      </c>
+      <c r="E1020">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>18</v>
+      </c>
+      <c r="B1021">
+        <v>0.61</v>
+      </c>
+      <c r="C1021">
+        <v>18</v>
+      </c>
+      <c r="D1021">
+        <v>116</v>
+      </c>
+      <c r="E1021">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>15</v>
+      </c>
+      <c r="B1022">
+        <v>-0.61</v>
+      </c>
+      <c r="C1022">
+        <v>18</v>
+      </c>
+      <c r="D1022">
+        <v>154</v>
+      </c>
+      <c r="E1022">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>18</v>
+      </c>
+      <c r="B1023">
+        <v>0.61</v>
+      </c>
+      <c r="C1023">
+        <v>18</v>
+      </c>
+      <c r="D1023">
+        <v>192</v>
+      </c>
+      <c r="E1023">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>180</v>
+      </c>
+      <c r="B1024">
+        <v>3</v>
+      </c>
+      <c r="C1024">
+        <v>19</v>
+      </c>
+      <c r="D1024">
+        <v>64</v>
+      </c>
+      <c r="E1024">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>38</v>
+      </c>
+      <c r="B1025">
+        <v>0.63</v>
+      </c>
+      <c r="C1025">
+        <v>19</v>
+      </c>
+      <c r="D1025">
+        <v>100</v>
+      </c>
+      <c r="E1025">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>40</v>
+      </c>
+      <c r="B1026">
+        <v>-4</v>
+      </c>
+      <c r="C1026">
+        <v>19</v>
+      </c>
+      <c r="D1026">
+        <v>136</v>
+      </c>
+      <c r="E1026">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>110</v>
+      </c>
+      <c r="B1027">
+        <v>-1.33</v>
+      </c>
+      <c r="C1027">
+        <v>19</v>
+      </c>
+      <c r="D1027">
+        <v>172</v>
+      </c>
+      <c r="E1027">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>155</v>
+      </c>
+      <c r="B1028">
+        <v>-10</v>
+      </c>
+      <c r="C1028">
+        <v>13</v>
+      </c>
+      <c r="D1028">
+        <v>164</v>
+      </c>
+      <c r="E1028">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>50</v>
+      </c>
+      <c r="B1029">
+        <v>-11</v>
+      </c>
+      <c r="C1029">
+        <v>18</v>
+      </c>
+      <c r="D1029">
+        <v>116</v>
+      </c>
+      <c r="E1029">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>85</v>
+      </c>
+      <c r="B1030">
+        <v>-5.5</v>
+      </c>
+      <c r="C1030">
+        <v>18</v>
+      </c>
+      <c r="D1030">
+        <v>154</v>
+      </c>
+      <c r="E1030">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>50</v>
+      </c>
+      <c r="B1031">
+        <v>-11</v>
+      </c>
+      <c r="C1031">
+        <v>18</v>
+      </c>
+      <c r="D1031">
+        <v>192</v>
+      </c>
+      <c r="E1031">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>81</v>
+      </c>
+      <c r="B1032">
+        <v>-0.63</v>
+      </c>
+      <c r="C1032">
+        <v>19</v>
+      </c>
+      <c r="D1032">
+        <v>28</v>
+      </c>
+      <c r="E1032">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>-5</v>
+      </c>
+      <c r="B1033">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C1033">
+        <v>18</v>
+      </c>
+      <c r="D1033">
+        <v>59</v>
+      </c>
+      <c r="E1033">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>45</v>
+      </c>
+      <c r="B1034">
+        <v>3.25</v>
+      </c>
+      <c r="C1034">
+        <v>14</v>
+      </c>
+      <c r="D1034">
+        <v>39</v>
+      </c>
+      <c r="E1034">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>80</v>
+      </c>
+      <c r="B1035">
+        <v>-4.33</v>
+      </c>
+      <c r="C1035">
+        <v>14</v>
+      </c>
+      <c r="D1035">
+        <v>87</v>
+      </c>
+      <c r="E1035">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>41</v>
+      </c>
+      <c r="B1036">
+        <v>-0.93</v>
+      </c>
+      <c r="C1036">
+        <v>14</v>
+      </c>
+      <c r="D1036">
+        <v>135</v>
+      </c>
+      <c r="E1036">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>50</v>
+      </c>
+      <c r="B1037">
+        <v>-11</v>
+      </c>
+      <c r="C1037">
+        <v>18</v>
+      </c>
+      <c r="D1037">
+        <v>21</v>
+      </c>
+      <c r="E1037">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>85</v>
+      </c>
+      <c r="B1038">
+        <v>-5.5</v>
+      </c>
+      <c r="C1038">
+        <v>18</v>
+      </c>
+      <c r="D1038">
+        <v>59</v>
+      </c>
+      <c r="E1038">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>50</v>
+      </c>
+      <c r="B1039">
+        <v>-11</v>
+      </c>
+      <c r="C1039">
+        <v>18</v>
+      </c>
+      <c r="D1039">
+        <v>97</v>
+      </c>
+      <c r="E1039">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>85</v>
+      </c>
+      <c r="B1040">
+        <v>-5.5</v>
+      </c>
+      <c r="C1040">
+        <v>18</v>
+      </c>
+      <c r="D1040">
+        <v>135</v>
+      </c>
+      <c r="E1040">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>50</v>
+      </c>
+      <c r="B1041">
+        <v>-11</v>
+      </c>
+      <c r="C1041">
+        <v>18</v>
+      </c>
+      <c r="D1041">
+        <v>173</v>
+      </c>
+      <c r="E1041">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>85</v>
+      </c>
+      <c r="B1042">
+        <v>-1.27</v>
+      </c>
+      <c r="C1042">
+        <v>19</v>
+      </c>
+      <c r="D1042">
+        <v>10</v>
+      </c>
+      <c r="E1042">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>55</v>
+      </c>
+      <c r="B1043">
+        <v>2.75</v>
+      </c>
+      <c r="C1043">
+        <v>18</v>
+      </c>
+      <c r="D1043">
+        <v>116</v>
+      </c>
+      <c r="E1043">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>69</v>
+      </c>
+      <c r="B1044">
+        <v>-0.61</v>
+      </c>
+      <c r="C1044">
+        <v>18</v>
+      </c>
+      <c r="D1044">
+        <v>154</v>
+      </c>
+      <c r="E1044">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>177</v>
+      </c>
+      <c r="B1045">
+        <v>-0.61</v>
+      </c>
+      <c r="C1045">
+        <v>18</v>
+      </c>
+      <c r="D1045">
+        <v>192</v>
+      </c>
+      <c r="E1045">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>33</v>
+      </c>
+      <c r="B1046">
+        <v>-0.61</v>
+      </c>
+      <c r="C1046">
+        <v>18</v>
+      </c>
+      <c r="D1046">
+        <v>192</v>
+      </c>
+      <c r="E1046">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>20</v>
+      </c>
+      <c r="B1047">
+        <v>12</v>
+      </c>
+      <c r="C1047">
+        <v>19</v>
+      </c>
+      <c r="D1047">
+        <v>28</v>
+      </c>
+      <c r="E1047">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>33</v>
+      </c>
+      <c r="B1048">
+        <v>-0.61</v>
+      </c>
+      <c r="C1048">
+        <v>18</v>
+      </c>
+      <c r="D1048">
+        <v>97</v>
+      </c>
+      <c r="E1048">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>141</v>
+      </c>
+      <c r="B1049">
+        <v>-0.61</v>
+      </c>
+      <c r="C1049">
+        <v>18</v>
+      </c>
+      <c r="D1049">
+        <v>135</v>
+      </c>
+      <c r="E1049">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>126</v>
+      </c>
+      <c r="B1050">
+        <v>0.61</v>
+      </c>
+      <c r="C1050">
+        <v>18</v>
+      </c>
+      <c r="D1050">
+        <v>173</v>
+      </c>
+      <c r="E1050">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>-5</v>
+      </c>
+      <c r="B1051">
+        <v>-1.9</v>
+      </c>
+      <c r="C1051">
+        <v>19</v>
+      </c>
+      <c r="D1051">
+        <v>10</v>
+      </c>
+      <c r="E1051">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>69</v>
+      </c>
+      <c r="B1052">
+        <v>-0.93</v>
+      </c>
+      <c r="C1052">
+        <v>14</v>
+      </c>
+      <c r="D1052">
+        <v>87</v>
+      </c>
+      <c r="E1052">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1053">
+        <v>181</v>
+      </c>
+      <c r="B1053">
+        <v>-0.93</v>
+      </c>
+      <c r="C1053">
+        <v>14</v>
+      </c>
+      <c r="D1053">
+        <v>135</v>
+      </c>
+      <c r="E1053">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1054">
+        <v>98</v>
+      </c>
+      <c r="B1054">
+        <v>0.93</v>
+      </c>
+      <c r="C1054">
+        <v>14</v>
+      </c>
+      <c r="D1054">
+        <v>183</v>
+      </c>
+      <c r="E1054">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1055">
+        <v>-5</v>
+      </c>
+      <c r="B1055">
+        <v>-0.25</v>
+      </c>
+      <c r="C1055">
+        <v>15</v>
+      </c>
+      <c r="D1055">
+        <v>30</v>
+      </c>
+      <c r="E1055">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1056">
+        <v>170</v>
+      </c>
+      <c r="B1056">
+        <v>4.33</v>
+      </c>
+      <c r="C1056">
+        <v>14</v>
+      </c>
+      <c r="D1056">
+        <v>87</v>
+      </c>
+      <c r="E1056">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1057">
+        <v>56</v>
+      </c>
+      <c r="B1057">
+        <v>0.93</v>
+      </c>
+      <c r="C1057">
+        <v>14</v>
+      </c>
+      <c r="D1057">
+        <v>135</v>
+      </c>
+      <c r="E1057">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1058">
+        <v>155</v>
+      </c>
+      <c r="B1058">
+        <v>-2</v>
+      </c>
+      <c r="C1058">
+        <v>17</v>
+      </c>
+      <c r="D1058">
+        <v>22</v>
+      </c>
+      <c r="E1058">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1059">
+        <v>91</v>
+      </c>
+      <c r="B1059">
+        <v>-0.77</v>
+      </c>
+      <c r="C1059">
+        <v>13</v>
+      </c>
+      <c r="D1059">
+        <v>112</v>
+      </c>
+      <c r="E1059">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1060">
+        <v>33</v>
+      </c>
+      <c r="B1060">
+        <v>-0.61</v>
+      </c>
+      <c r="C1060">
+        <v>18</v>
+      </c>
+      <c r="D1060">
+        <v>192</v>
+      </c>
+      <c r="E1060">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1061">
+        <v>15</v>
+      </c>
+      <c r="B1061">
+        <v>-0.61</v>
+      </c>
+      <c r="C1061">
+        <v>18</v>
+      </c>
+      <c r="D1061">
+        <v>154</v>
+      </c>
+      <c r="E1061">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1062">
+        <v>123</v>
+      </c>
+      <c r="B1062">
+        <v>-0.61</v>
+      </c>
+      <c r="C1062">
+        <v>18</v>
+      </c>
+      <c r="D1062">
+        <v>192</v>
+      </c>
+      <c r="E1062">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1063">
+        <v>120</v>
+      </c>
+      <c r="B1063">
+        <v>12</v>
+      </c>
+      <c r="C1063">
+        <v>19</v>
+      </c>
+      <c r="D1063">
+        <v>172</v>
+      </c>
+      <c r="E1063">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1064">
+        <v>120</v>
+      </c>
+      <c r="B1064">
+        <v>12</v>
+      </c>
+      <c r="C1064">
+        <v>19</v>
+      </c>
+      <c r="D1064">
+        <v>172</v>
+      </c>
+      <c r="E1064">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1065">
+        <v>0</v>
+      </c>
+      <c r="B1065">
+        <v>-0.25</v>
+      </c>
+      <c r="C1065">
+        <v>20</v>
+      </c>
+      <c r="D1065">
+        <v>8</v>
+      </c>
+      <c r="E1065">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1066">
+        <v>145</v>
+      </c>
+      <c r="B1066">
+        <v>-1.5</v>
+      </c>
+      <c r="C1066">
+        <v>20</v>
+      </c>
+      <c r="D1066">
+        <v>42</v>
+      </c>
+      <c r="E1066">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>190</v>
+      </c>
+      <c r="B1067">
+        <v>-2.4</v>
+      </c>
+      <c r="C1067">
+        <v>17</v>
+      </c>
+      <c r="D1067">
+        <v>22</v>
+      </c>
+      <c r="E1067">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1068">
+        <v>51</v>
+      </c>
+      <c r="B1068">
+        <v>0.71</v>
+      </c>
+      <c r="C1068">
+        <v>17</v>
+      </c>
+      <c r="D1068">
+        <v>62</v>
+      </c>
+      <c r="E1068">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1069">
+        <v>95</v>
+      </c>
+      <c r="B1069">
+        <v>6</v>
+      </c>
+      <c r="C1069">
+        <v>17</v>
+      </c>
+      <c r="D1069">
+        <v>102</v>
+      </c>
+      <c r="E1069">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1070">
+        <v>15</v>
+      </c>
+      <c r="B1070">
+        <v>0.8</v>
+      </c>
+      <c r="C1070">
+        <v>19</v>
+      </c>
+      <c r="D1070">
+        <v>46</v>
+      </c>
+      <c r="E1070">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1071">
+        <v>41</v>
+      </c>
+      <c r="B1071">
+        <v>-0.45</v>
+      </c>
+      <c r="C1071">
+        <v>11</v>
+      </c>
+      <c r="D1071">
+        <v>182</v>
+      </c>
+      <c r="E1071">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1072">
+        <v>48</v>
+      </c>
+      <c r="B1072">
+        <v>0.92</v>
+      </c>
+      <c r="C1072">
+        <v>12</v>
+      </c>
+      <c r="D1072">
+        <v>40</v>
+      </c>
+      <c r="E1072">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1073">
+        <v>87</v>
+      </c>
+      <c r="B1073">
+        <v>-0.92</v>
+      </c>
+      <c r="C1073">
+        <v>12</v>
+      </c>
+      <c r="D1073">
+        <v>96</v>
+      </c>
+      <c r="E1073">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>168</v>
+      </c>
+      <c r="B1074">
+        <v>0.92</v>
+      </c>
+      <c r="C1074">
+        <v>12</v>
+      </c>
+      <c r="D1074">
+        <v>152</v>
+      </c>
+      <c r="E1074">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>19</v>
+      </c>
+      <c r="B1075">
+        <v>1</v>
+      </c>
+      <c r="C1075">
+        <v>19</v>
+      </c>
+      <c r="D1075">
+        <v>10</v>
+      </c>
+      <c r="E1075">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>69</v>
+      </c>
+      <c r="B1076">
+        <v>-0.61</v>
+      </c>
+      <c r="C1076">
+        <v>18</v>
+      </c>
+      <c r="D1076">
+        <v>154</v>
+      </c>
+      <c r="E1076">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>45</v>
+      </c>
+      <c r="B1077">
+        <v>4</v>
+      </c>
+      <c r="C1077">
+        <v>17</v>
+      </c>
+      <c r="D1077">
+        <v>22</v>
+      </c>
+      <c r="E1077">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>95</v>
+      </c>
+      <c r="B1078">
+        <v>6</v>
+      </c>
+      <c r="C1078">
+        <v>17</v>
+      </c>
+      <c r="D1078">
+        <v>62</v>
+      </c>
+      <c r="E1078">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>25</v>
+      </c>
+      <c r="B1079">
+        <v>-0.71</v>
+      </c>
+      <c r="C1079">
+        <v>17</v>
+      </c>
+      <c r="D1079">
+        <v>102</v>
+      </c>
+      <c r="E1079">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>180</v>
+      </c>
+      <c r="B1080">
+        <v>6</v>
+      </c>
+      <c r="C1080">
+        <v>17</v>
+      </c>
+      <c r="D1080">
+        <v>142</v>
+      </c>
+      <c r="E1080">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>51</v>
+      </c>
+      <c r="B1081">
+        <v>0.71</v>
+      </c>
+      <c r="C1081">
+        <v>17</v>
+      </c>
+      <c r="D1081">
+        <v>182</v>
+      </c>
+      <c r="E1081">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>69</v>
+      </c>
+      <c r="B1082">
+        <v>-0.61</v>
+      </c>
+      <c r="C1082">
+        <v>18</v>
+      </c>
+      <c r="D1082">
+        <v>21</v>
+      </c>
+      <c r="E1082">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>177</v>
+      </c>
+      <c r="B1083">
+        <v>-0.61</v>
+      </c>
+      <c r="C1083">
+        <v>18</v>
+      </c>
+      <c r="D1083">
+        <v>59</v>
+      </c>
+      <c r="E1083">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>108</v>
+      </c>
+      <c r="B1084">
+        <v>0.61</v>
+      </c>
+      <c r="C1084">
+        <v>18</v>
+      </c>
+      <c r="D1084">
+        <v>97</v>
+      </c>
+      <c r="E1084">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>-5</v>
+      </c>
+      <c r="B1085">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C1085">
+        <v>18</v>
+      </c>
+      <c r="D1085">
+        <v>135</v>
+      </c>
+      <c r="E1085">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>36</v>
+      </c>
+      <c r="B1086">
+        <v>0.61</v>
+      </c>
+      <c r="C1086">
+        <v>18</v>
+      </c>
+      <c r="D1086">
+        <v>173</v>
+      </c>
+      <c r="E1086">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>81</v>
+      </c>
+      <c r="B1087">
+        <v>-1</v>
+      </c>
+      <c r="C1087">
+        <v>19</v>
+      </c>
+      <c r="D1087">
+        <v>10</v>
+      </c>
+      <c r="E1087">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>40</v>
+      </c>
+      <c r="B1088">
+        <v>-4</v>
+      </c>
+      <c r="C1088">
+        <v>19</v>
+      </c>
+      <c r="D1088">
+        <v>82</v>
+      </c>
+      <c r="E1088">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>120</v>
+      </c>
+      <c r="B1089">
+        <v>12</v>
+      </c>
+      <c r="C1089">
+        <v>19</v>
+      </c>
+      <c r="D1089">
+        <v>118</v>
+      </c>
+      <c r="E1089">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>5</v>
+      </c>
+      <c r="B1090">
+        <v>-0.63</v>
+      </c>
+      <c r="C1090">
+        <v>19</v>
+      </c>
+      <c r="D1090">
+        <v>154</v>
+      </c>
+      <c r="E1090">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>0</v>
+      </c>
+      <c r="B1091">
+        <v>0</v>
+      </c>
+      <c r="C1091">
+        <v>19</v>
+      </c>
+      <c r="D1091">
+        <v>190</v>
+      </c>
+      <c r="E1091">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>170</v>
+      </c>
+      <c r="B1092">
+        <v>4.33</v>
+      </c>
+      <c r="C1092">
+        <v>14</v>
+      </c>
+      <c r="D1092">
+        <v>159</v>
+      </c>
+      <c r="E1092">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>60</v>
+      </c>
+      <c r="B1093">
+        <v>0.4</v>
+      </c>
+      <c r="C1093">
+        <v>15</v>
+      </c>
+      <c r="D1093">
+        <v>7</v>
+      </c>
+      <c r="E1093">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>30</v>
+      </c>
+      <c r="B1094">
+        <v>-0.33</v>
+      </c>
+      <c r="C1094">
+        <v>15</v>
+      </c>
+      <c r="D1094">
+        <v>53</v>
+      </c>
+      <c r="E1094">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>18</v>
+      </c>
+      <c r="B1095">
+        <v>0.61</v>
+      </c>
+      <c r="C1095">
+        <v>18</v>
+      </c>
+      <c r="D1095">
+        <v>97</v>
+      </c>
+      <c r="E1095">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>15</v>
+      </c>
+      <c r="B1096">
+        <v>-0.61</v>
+      </c>
+      <c r="C1096">
+        <v>18</v>
+      </c>
+      <c r="D1096">
+        <v>135</v>
+      </c>
+      <c r="E1096">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>18</v>
+      </c>
+      <c r="B1097">
+        <v>0.61</v>
+      </c>
+      <c r="C1097">
+        <v>18</v>
+      </c>
+      <c r="D1097">
+        <v>173</v>
+      </c>
+      <c r="E1097">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>100</v>
+      </c>
+      <c r="B1098">
+        <v>-1</v>
+      </c>
+      <c r="C1098">
+        <v>19</v>
+      </c>
+      <c r="D1098">
+        <v>10</v>
+      </c>
+      <c r="E1098">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>24</v>
+      </c>
+      <c r="B1099">
+        <v>-0.63</v>
+      </c>
+      <c r="C1099">
+        <v>19</v>
+      </c>
+      <c r="D1099">
+        <v>46</v>
+      </c>
+      <c r="E1099">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>176</v>
+      </c>
+      <c r="B1100">
+        <v>-0.63</v>
+      </c>
+      <c r="C1100">
+        <v>19</v>
+      </c>
+      <c r="D1100">
+        <v>82</v>
+      </c>
+      <c r="E1100">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>19</v>
+      </c>
+      <c r="B1101">
+        <v>1</v>
+      </c>
+      <c r="C1101">
+        <v>19</v>
+      </c>
+      <c r="D1101">
+        <v>10</v>
+      </c>
+      <c r="E1101">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>42</v>
+      </c>
+      <c r="B1102">
+        <v>-0.71</v>
+      </c>
+      <c r="C1102">
+        <v>17</v>
+      </c>
+      <c r="D1102">
+        <v>42</v>
+      </c>
+      <c r="E1102">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>38</v>
+      </c>
+      <c r="B1103">
+        <v>0.63</v>
+      </c>
+      <c r="C1103">
+        <v>19</v>
+      </c>
+      <c r="D1103">
+        <v>28</v>
+      </c>
+      <c r="E1103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>40</v>
+      </c>
+      <c r="B1104">
+        <v>-4</v>
+      </c>
+      <c r="C1104">
+        <v>19</v>
+      </c>
+      <c r="D1104">
+        <v>64</v>
+      </c>
+      <c r="E1104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>110</v>
+      </c>
+      <c r="B1105">
+        <v>-1.33</v>
+      </c>
+      <c r="C1105">
+        <v>19</v>
+      </c>
+      <c r="D1105">
+        <v>100</v>
+      </c>
+      <c r="E1105">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>115</v>
+      </c>
+      <c r="B1106">
+        <v>-3</v>
+      </c>
+      <c r="C1106">
+        <v>19</v>
+      </c>
+      <c r="D1106">
+        <v>136</v>
+      </c>
+      <c r="E1106">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>24</v>
+      </c>
+      <c r="B1107">
+        <v>-0.63</v>
+      </c>
+      <c r="C1107">
+        <v>19</v>
+      </c>
+      <c r="D1107">
+        <v>172</v>
+      </c>
+      <c r="E1107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>80</v>
+      </c>
+      <c r="B1108">
+        <v>0.2</v>
+      </c>
+      <c r="C1108">
+        <v>20</v>
+      </c>
+      <c r="D1108">
+        <v>8</v>
+      </c>
+      <c r="E1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>19</v>
+      </c>
+      <c r="B1109">
+        <v>1</v>
+      </c>
+      <c r="C1109">
+        <v>19</v>
+      </c>
+      <c r="D1109">
+        <v>10</v>
+      </c>
+      <c r="E1109">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>19</v>
+      </c>
+      <c r="B1110">
+        <v>1</v>
+      </c>
+      <c r="C1110">
+        <v>19</v>
+      </c>
+      <c r="D1110">
+        <v>10</v>
+      </c>
+      <c r="E1110">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>80</v>
+      </c>
+      <c r="B1111">
+        <v>1.5</v>
+      </c>
+      <c r="C1111">
+        <v>15</v>
+      </c>
+      <c r="D1111">
+        <v>7</v>
+      </c>
+      <c r="E1111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>15</v>
+      </c>
+      <c r="B1112">
+        <v>-0.33</v>
+      </c>
+      <c r="C1112">
+        <v>15</v>
+      </c>
+      <c r="D1112">
+        <v>53</v>
+      </c>
+      <c r="E1112">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>45</v>
+      </c>
+      <c r="B1113">
+        <v>3.25</v>
+      </c>
+      <c r="C1113">
+        <v>14</v>
+      </c>
+      <c r="D1113">
+        <v>87</v>
+      </c>
+      <c r="E1113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>80</v>
+      </c>
+      <c r="B1114">
+        <v>-4.33</v>
+      </c>
+      <c r="C1114">
+        <v>14</v>
+      </c>
+      <c r="D1114">
+        <v>135</v>
+      </c>
+      <c r="E1114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>135</v>
+      </c>
+      <c r="B1115">
+        <v>1.75</v>
+      </c>
+      <c r="C1115">
+        <v>16</v>
+      </c>
+      <c r="D1115">
+        <v>13</v>
+      </c>
+      <c r="E1115">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>